--- a/ConvertedEqual/Montana_Converted.xlsx
+++ b/ConvertedEqual/Montana_Converted.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="276">
   <si>
     <t>Policy/Closing</t>
   </si>
@@ -807,6 +807,42 @@
   </si>
   <si>
     <t>9/29/2020</t>
+  </si>
+  <si>
+    <t>9/30/2020</t>
+  </si>
+  <si>
+    <t>10/1/2020</t>
+  </si>
+  <si>
+    <t>10/2/2020</t>
+  </si>
+  <si>
+    <t>10/3/2020</t>
+  </si>
+  <si>
+    <t>10/4/2020</t>
+  </si>
+  <si>
+    <t>10/5/2020</t>
+  </si>
+  <si>
+    <t>10/6/2020</t>
+  </si>
+  <si>
+    <t>10/7/2020</t>
+  </si>
+  <si>
+    <t>10/8/2020</t>
+  </si>
+  <si>
+    <t>10/9/2020</t>
+  </si>
+  <si>
+    <t>10/10/2020</t>
+  </si>
+  <si>
+    <t>10/11/2020</t>
   </si>
 </sst>
 </file>
@@ -1168,7 +1204,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA221"/>
+  <dimension ref="A1:AA233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1557,7 +1593,7 @@
         <v>1</v>
       </c>
       <c r="X7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y7">
         <v>1</v>
@@ -1566,7 +1602,7 @@
         <v>1</v>
       </c>
       <c r="AA7">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:27">
@@ -2816,7 +2852,7 @@
         <v>0</v>
       </c>
       <c r="AA23">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="24" spans="1:27">
@@ -2899,7 +2935,7 @@
         <v>0</v>
       </c>
       <c r="AA24">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="25" spans="1:27">
@@ -2982,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="AA25">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="26" spans="1:27">
@@ -3065,7 +3101,7 @@
         <v>0</v>
       </c>
       <c r="AA26">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="27" spans="1:27">
@@ -3148,7 +3184,7 @@
         <v>0</v>
       </c>
       <c r="AA27">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="28" spans="1:27">
@@ -3231,7 +3267,7 @@
         <v>0</v>
       </c>
       <c r="AA28">
-        <v>0.2884615384615384</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="29" spans="1:27">
@@ -3314,7 +3350,7 @@
         <v>0</v>
       </c>
       <c r="AA29">
-        <v>0.2884615384615384</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="30" spans="1:27">
@@ -3397,7 +3433,7 @@
         <v>0</v>
       </c>
       <c r="AA30">
-        <v>0.2884615384615384</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="31" spans="1:27">
@@ -3480,7 +3516,7 @@
         <v>0</v>
       </c>
       <c r="AA31">
-        <v>0.2884615384615384</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="32" spans="1:27">
@@ -3563,7 +3599,7 @@
         <v>0</v>
       </c>
       <c r="AA32">
-        <v>0.3653846153846154</v>
+        <v>0.3958333333333333</v>
       </c>
     </row>
     <row r="33" spans="1:27">
@@ -3646,7 +3682,7 @@
         <v>0</v>
       </c>
       <c r="AA33">
-        <v>0.3653846153846154</v>
+        <v>0.3958333333333333</v>
       </c>
     </row>
     <row r="34" spans="1:27">
@@ -3729,7 +3765,7 @@
         <v>0</v>
       </c>
       <c r="AA34">
-        <v>0.8461538461461537</v>
+        <v>0.8333333333249998</v>
       </c>
     </row>
     <row r="35" spans="1:27">
@@ -3812,7 +3848,7 @@
         <v>0</v>
       </c>
       <c r="AA35">
-        <v>0.8461538461461537</v>
+        <v>0.8333333333249998</v>
       </c>
     </row>
     <row r="36" spans="1:27">
@@ -3895,7 +3931,7 @@
         <v>0</v>
       </c>
       <c r="AA36">
-        <v>0.8461538461461537</v>
+        <v>0.8333333333249998</v>
       </c>
     </row>
     <row r="37" spans="1:27">
@@ -3978,7 +4014,7 @@
         <v>0</v>
       </c>
       <c r="AA37">
-        <v>0.8461538461461537</v>
+        <v>0.8333333333249998</v>
       </c>
     </row>
     <row r="38" spans="1:27">
@@ -4061,7 +4097,7 @@
         <v>0</v>
       </c>
       <c r="AA38">
-        <v>0.8461538461461537</v>
+        <v>0.8333333333249998</v>
       </c>
     </row>
     <row r="39" spans="1:27">
@@ -4144,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="AA39">
-        <v>0.8461538461461537</v>
+        <v>0.8333333333249998</v>
       </c>
     </row>
     <row r="40" spans="1:27">
@@ -4227,7 +4263,7 @@
         <v>0</v>
       </c>
       <c r="AA40">
-        <v>0.8461538461461537</v>
+        <v>0.8333333333249998</v>
       </c>
     </row>
     <row r="41" spans="1:27">
@@ -4310,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="AA41">
-        <v>0.8461538461461537</v>
+        <v>0.8333333333249998</v>
       </c>
     </row>
     <row r="42" spans="1:27">
@@ -4393,7 +4429,7 @@
         <v>0</v>
       </c>
       <c r="AA42">
-        <v>0.8461538461461537</v>
+        <v>0.8333333333249998</v>
       </c>
     </row>
     <row r="43" spans="1:27">
@@ -4476,7 +4512,7 @@
         <v>0</v>
       </c>
       <c r="AA43">
-        <v>0.8461538461461537</v>
+        <v>0.8333333333249998</v>
       </c>
     </row>
     <row r="44" spans="1:27">
@@ -4559,7 +4595,7 @@
         <v>0</v>
       </c>
       <c r="AA44">
-        <v>0.8461538461461537</v>
+        <v>0.8333333333249998</v>
       </c>
     </row>
     <row r="45" spans="1:27">
@@ -4642,7 +4678,7 @@
         <v>0</v>
       </c>
       <c r="AA45">
-        <v>0.8461538461461537</v>
+        <v>0.8333333333249998</v>
       </c>
     </row>
     <row r="46" spans="1:27">
@@ -4725,7 +4761,7 @@
         <v>0</v>
       </c>
       <c r="AA46">
-        <v>0.8461538461461537</v>
+        <v>0.8333333333249998</v>
       </c>
     </row>
     <row r="47" spans="1:27">
@@ -4808,7 +4844,7 @@
         <v>0</v>
       </c>
       <c r="AA47">
-        <v>0.8461538461461537</v>
+        <v>0.8333333333249998</v>
       </c>
     </row>
     <row r="48" spans="1:27">
@@ -4891,7 +4927,7 @@
         <v>0</v>
       </c>
       <c r="AA48">
-        <v>0.8461538461461537</v>
+        <v>0.8333333333249998</v>
       </c>
     </row>
     <row r="49" spans="1:27">
@@ -4974,7 +5010,7 @@
         <v>0</v>
       </c>
       <c r="AA49">
-        <v>0.8461538461461537</v>
+        <v>0.8333333333249998</v>
       </c>
     </row>
     <row r="50" spans="1:27">
@@ -5057,7 +5093,7 @@
         <v>0</v>
       </c>
       <c r="AA50">
-        <v>0.8461538461461537</v>
+        <v>0.8333333333249998</v>
       </c>
     </row>
     <row r="51" spans="1:27">
@@ -5140,7 +5176,7 @@
         <v>0</v>
       </c>
       <c r="AA51">
-        <v>0.8461538461461537</v>
+        <v>0.8333333333249998</v>
       </c>
     </row>
     <row r="52" spans="1:27">
@@ -5223,7 +5259,7 @@
         <v>0</v>
       </c>
       <c r="AA52">
-        <v>0.8461538461461537</v>
+        <v>0.8333333333249998</v>
       </c>
     </row>
     <row r="53" spans="1:27">
@@ -5306,7 +5342,7 @@
         <v>0</v>
       </c>
       <c r="AA53">
-        <v>0.8461538461461537</v>
+        <v>0.8333333333249998</v>
       </c>
     </row>
     <row r="54" spans="1:27">
@@ -5389,7 +5425,7 @@
         <v>0</v>
       </c>
       <c r="AA54">
-        <v>0.8461538461461537</v>
+        <v>0.8333333333249998</v>
       </c>
     </row>
     <row r="55" spans="1:27">
@@ -5472,7 +5508,7 @@
         <v>0</v>
       </c>
       <c r="AA55">
-        <v>0.8461538461461537</v>
+        <v>0.8333333333249998</v>
       </c>
     </row>
     <row r="56" spans="1:27">
@@ -5555,7 +5591,7 @@
         <v>0</v>
       </c>
       <c r="AA56">
-        <v>0.8461538461461537</v>
+        <v>0.8333333333249998</v>
       </c>
     </row>
     <row r="57" spans="1:27">
@@ -5638,7 +5674,7 @@
         <v>0</v>
       </c>
       <c r="AA57">
-        <v>0.8461538461461537</v>
+        <v>0.8333333333249998</v>
       </c>
     </row>
     <row r="58" spans="1:27">
@@ -5721,7 +5757,7 @@
         <v>0</v>
       </c>
       <c r="AA58">
-        <v>0.8461538461461537</v>
+        <v>0.8333333333249998</v>
       </c>
     </row>
     <row r="59" spans="1:27">
@@ -5804,7 +5840,7 @@
         <v>0</v>
       </c>
       <c r="AA59">
-        <v>0.8461538461461537</v>
+        <v>0.8333333333249998</v>
       </c>
     </row>
     <row r="60" spans="1:27">
@@ -5887,7 +5923,7 @@
         <v>0</v>
       </c>
       <c r="AA60">
-        <v>0.8461538461461537</v>
+        <v>0.8333333333249998</v>
       </c>
     </row>
     <row r="61" spans="1:27">
@@ -5970,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="AA61">
-        <v>0.8461538461461537</v>
+        <v>0.8333333333249998</v>
       </c>
     </row>
     <row r="62" spans="1:27">
@@ -6053,7 +6089,7 @@
         <v>0</v>
       </c>
       <c r="AA62">
-        <v>0.8461538461461537</v>
+        <v>0.8333333333249998</v>
       </c>
     </row>
     <row r="63" spans="1:27">
@@ -6136,7 +6172,7 @@
         <v>0</v>
       </c>
       <c r="AA63">
-        <v>0.8461538461461537</v>
+        <v>0.8333333333249998</v>
       </c>
     </row>
     <row r="64" spans="1:27">
@@ -6219,7 +6255,7 @@
         <v>0</v>
       </c>
       <c r="AA64">
-        <v>0.8461538461461537</v>
+        <v>0.8333333333249998</v>
       </c>
     </row>
     <row r="65" spans="1:27">
@@ -6302,7 +6338,7 @@
         <v>0</v>
       </c>
       <c r="AA65">
-        <v>0.8461538461461537</v>
+        <v>0.8333333333249998</v>
       </c>
     </row>
     <row r="66" spans="1:27">
@@ -6385,7 +6421,7 @@
         <v>0</v>
       </c>
       <c r="AA66">
-        <v>0.7692307692230768</v>
+        <v>0.7499999999916666</v>
       </c>
     </row>
     <row r="67" spans="1:27">
@@ -6468,7 +6504,7 @@
         <v>0</v>
       </c>
       <c r="AA67">
-        <v>0.6153846153846154</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="68" spans="1:27">
@@ -6551,7 +6587,7 @@
         <v>0</v>
       </c>
       <c r="AA68">
-        <v>0.6153846153846154</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="69" spans="1:27">
@@ -6634,7 +6670,7 @@
         <v>0</v>
       </c>
       <c r="AA69">
-        <v>0.6153846153846154</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="70" spans="1:27">
@@ -6717,7 +6753,7 @@
         <v>0</v>
       </c>
       <c r="AA70">
-        <v>0.6153846153846154</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="71" spans="1:27">
@@ -6800,7 +6836,7 @@
         <v>0</v>
       </c>
       <c r="AA71">
-        <v>0.6153846153846154</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="72" spans="1:27">
@@ -6883,7 +6919,7 @@
         <v>0</v>
       </c>
       <c r="AA72">
-        <v>0.6153846153846154</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="73" spans="1:27">
@@ -6966,7 +7002,7 @@
         <v>0</v>
       </c>
       <c r="AA73">
-        <v>0.6153846153846154</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="74" spans="1:27">
@@ -7049,7 +7085,7 @@
         <v>0</v>
       </c>
       <c r="AA74">
-        <v>0.5384615384615384</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="75" spans="1:27">
@@ -7132,7 +7168,7 @@
         <v>0</v>
       </c>
       <c r="AA75">
-        <v>0.5384615384615384</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="76" spans="1:27">
@@ -7215,7 +7251,7 @@
         <v>0</v>
       </c>
       <c r="AA76">
-        <v>0.5384615384615384</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="77" spans="1:27">
@@ -7298,7 +7334,7 @@
         <v>0</v>
       </c>
       <c r="AA77">
-        <v>0.5384615384615384</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="78" spans="1:27">
@@ -7381,7 +7417,7 @@
         <v>0</v>
       </c>
       <c r="AA78">
-        <v>0.5384615384615384</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="79" spans="1:27">
@@ -7464,7 +7500,7 @@
         <v>0</v>
       </c>
       <c r="AA79">
-        <v>0.5384615384615384</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="80" spans="1:27">
@@ -7547,7 +7583,7 @@
         <v>0</v>
       </c>
       <c r="AA80">
-        <v>0.5384615384615384</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="81" spans="1:27">
@@ -7630,7 +7666,7 @@
         <v>0</v>
       </c>
       <c r="AA81">
-        <v>0.5384615384615384</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="82" spans="1:27">
@@ -7713,7 +7749,7 @@
         <v>0</v>
       </c>
       <c r="AA82">
-        <v>0.5384615384615384</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="83" spans="1:27">
@@ -7796,7 +7832,7 @@
         <v>0</v>
       </c>
       <c r="AA83">
-        <v>0.5384615384615384</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="84" spans="1:27">
@@ -7879,7 +7915,7 @@
         <v>0</v>
       </c>
       <c r="AA84">
-        <v>0.5384615384615384</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="85" spans="1:27">
@@ -7962,7 +7998,7 @@
         <v>0</v>
       </c>
       <c r="AA85">
-        <v>0.4423076923076923</v>
+        <v>0.3958333333333333</v>
       </c>
     </row>
     <row r="86" spans="1:27">
@@ -8045,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="AA86">
-        <v>0.4423076923076923</v>
+        <v>0.3958333333333333</v>
       </c>
     </row>
     <row r="87" spans="1:27">
@@ -8128,7 +8164,7 @@
         <v>0</v>
       </c>
       <c r="AA87">
-        <v>0.4423076923076923</v>
+        <v>0.3958333333333333</v>
       </c>
     </row>
     <row r="88" spans="1:27">
@@ -8211,7 +8247,7 @@
         <v>0</v>
       </c>
       <c r="AA88">
-        <v>0.4423076923076923</v>
+        <v>0.3958333333333333</v>
       </c>
     </row>
     <row r="89" spans="1:27">
@@ -8294,7 +8330,7 @@
         <v>0</v>
       </c>
       <c r="AA89">
-        <v>0.4423076923076923</v>
+        <v>0.3958333333333333</v>
       </c>
     </row>
     <row r="90" spans="1:27">
@@ -8377,7 +8413,7 @@
         <v>0</v>
       </c>
       <c r="AA90">
-        <v>0.4423076923076923</v>
+        <v>0.3958333333333333</v>
       </c>
     </row>
     <row r="91" spans="1:27">
@@ -8460,7 +8496,7 @@
         <v>0</v>
       </c>
       <c r="AA91">
-        <v>0.4423076923076923</v>
+        <v>0.3958333333333333</v>
       </c>
     </row>
     <row r="92" spans="1:27">
@@ -8543,7 +8579,7 @@
         <v>0</v>
       </c>
       <c r="AA92">
-        <v>0.4423076923076923</v>
+        <v>0.3958333333333333</v>
       </c>
     </row>
     <row r="93" spans="1:27">
@@ -8626,7 +8662,7 @@
         <v>0</v>
       </c>
       <c r="AA93">
-        <v>0.4423076923076923</v>
+        <v>0.3958333333333333</v>
       </c>
     </row>
     <row r="94" spans="1:27">
@@ -8709,7 +8745,7 @@
         <v>0</v>
       </c>
       <c r="AA94">
-        <v>0.4423076923076923</v>
+        <v>0.3958333333333333</v>
       </c>
     </row>
     <row r="95" spans="1:27">
@@ -8792,7 +8828,7 @@
         <v>0</v>
       </c>
       <c r="AA95">
-        <v>0.4423076923076923</v>
+        <v>0.3958333333333333</v>
       </c>
     </row>
     <row r="96" spans="1:27">
@@ -8875,7 +8911,7 @@
         <v>0</v>
       </c>
       <c r="AA96">
-        <v>0.4423076923076923</v>
+        <v>0.3958333333333333</v>
       </c>
     </row>
     <row r="97" spans="1:27">
@@ -8958,7 +8994,7 @@
         <v>0</v>
       </c>
       <c r="AA97">
-        <v>0.4423076923076923</v>
+        <v>0.3958333333333333</v>
       </c>
     </row>
     <row r="98" spans="1:27">
@@ -9041,7 +9077,7 @@
         <v>0</v>
       </c>
       <c r="AA98">
-        <v>0.4423076923076923</v>
+        <v>0.3958333333333333</v>
       </c>
     </row>
     <row r="99" spans="1:27">
@@ -9124,7 +9160,7 @@
         <v>0</v>
       </c>
       <c r="AA99">
-        <v>0.4423076923076923</v>
+        <v>0.3958333333333333</v>
       </c>
     </row>
     <row r="100" spans="1:27">
@@ -9207,7 +9243,7 @@
         <v>0</v>
       </c>
       <c r="AA100">
-        <v>0.4423076923076923</v>
+        <v>0.3958333333333333</v>
       </c>
     </row>
     <row r="101" spans="1:27">
@@ -9290,7 +9326,7 @@
         <v>0</v>
       </c>
       <c r="AA101">
-        <v>0.4423076923076923</v>
+        <v>0.3958333333333333</v>
       </c>
     </row>
     <row r="102" spans="1:27">
@@ -9373,7 +9409,7 @@
         <v>0</v>
       </c>
       <c r="AA102">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="103" spans="1:27">
@@ -9456,7 +9492,7 @@
         <v>0</v>
       </c>
       <c r="AA103">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="104" spans="1:27">
@@ -9539,7 +9575,7 @@
         <v>0</v>
       </c>
       <c r="AA104">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="105" spans="1:27">
@@ -9622,7 +9658,7 @@
         <v>0</v>
       </c>
       <c r="AA105">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="106" spans="1:27">
@@ -9705,7 +9741,7 @@
         <v>0</v>
       </c>
       <c r="AA106">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="107" spans="1:27">
@@ -9788,7 +9824,7 @@
         <v>0</v>
       </c>
       <c r="AA107">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="108" spans="1:27">
@@ -9871,7 +9907,7 @@
         <v>0</v>
       </c>
       <c r="AA108">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="109" spans="1:27">
@@ -9954,7 +9990,7 @@
         <v>0</v>
       </c>
       <c r="AA109">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="110" spans="1:27">
@@ -10037,7 +10073,7 @@
         <v>0</v>
       </c>
       <c r="AA110">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="111" spans="1:27">
@@ -10120,7 +10156,7 @@
         <v>0</v>
       </c>
       <c r="AA111">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="112" spans="1:27">
@@ -10203,7 +10239,7 @@
         <v>0</v>
       </c>
       <c r="AA112">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="113" spans="1:27">
@@ -10286,7 +10322,7 @@
         <v>0</v>
       </c>
       <c r="AA113">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="114" spans="1:27">
@@ -10369,7 +10405,7 @@
         <v>0</v>
       </c>
       <c r="AA114">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="115" spans="1:27">
@@ -10452,7 +10488,7 @@
         <v>0</v>
       </c>
       <c r="AA115">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="116" spans="1:27">
@@ -10535,7 +10571,7 @@
         <v>0</v>
       </c>
       <c r="AA116">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="117" spans="1:27">
@@ -10618,7 +10654,7 @@
         <v>0</v>
       </c>
       <c r="AA117">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="118" spans="1:27">
@@ -10701,7 +10737,7 @@
         <v>0</v>
       </c>
       <c r="AA118">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="119" spans="1:27">
@@ -10784,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="AA119">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="120" spans="1:27">
@@ -10867,7 +10903,7 @@
         <v>0</v>
       </c>
       <c r="AA120">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="121" spans="1:27">
@@ -10950,7 +10986,7 @@
         <v>0</v>
       </c>
       <c r="AA121">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="122" spans="1:27">
@@ -11033,7 +11069,7 @@
         <v>0</v>
       </c>
       <c r="AA122">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="123" spans="1:27">
@@ -11116,7 +11152,7 @@
         <v>0</v>
       </c>
       <c r="AA123">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="124" spans="1:27">
@@ -11199,7 +11235,7 @@
         <v>0</v>
       </c>
       <c r="AA124">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="125" spans="1:27">
@@ -11282,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="AA125">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="126" spans="1:27">
@@ -11365,7 +11401,7 @@
         <v>0</v>
       </c>
       <c r="AA126">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="127" spans="1:27">
@@ -11448,7 +11484,7 @@
         <v>0</v>
       </c>
       <c r="AA127">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="128" spans="1:27">
@@ -11531,7 +11567,7 @@
         <v>0</v>
       </c>
       <c r="AA128">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="129" spans="1:27">
@@ -11614,7 +11650,7 @@
         <v>0</v>
       </c>
       <c r="AA129">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="130" spans="1:27">
@@ -11697,7 +11733,7 @@
         <v>0</v>
       </c>
       <c r="AA130">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="131" spans="1:27">
@@ -11780,7 +11816,7 @@
         <v>0</v>
       </c>
       <c r="AA131">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="132" spans="1:27">
@@ -11863,7 +11899,7 @@
         <v>0</v>
       </c>
       <c r="AA132">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="133" spans="1:27">
@@ -11946,7 +11982,7 @@
         <v>0</v>
       </c>
       <c r="AA133">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="134" spans="1:27">
@@ -12029,7 +12065,7 @@
         <v>0</v>
       </c>
       <c r="AA134">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="135" spans="1:27">
@@ -12112,7 +12148,7 @@
         <v>0</v>
       </c>
       <c r="AA135">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="136" spans="1:27">
@@ -12195,7 +12231,7 @@
         <v>0</v>
       </c>
       <c r="AA136">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="137" spans="1:27">
@@ -12278,7 +12314,7 @@
         <v>0</v>
       </c>
       <c r="AA137">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="138" spans="1:27">
@@ -12361,7 +12397,7 @@
         <v>0</v>
       </c>
       <c r="AA138">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="139" spans="1:27">
@@ -12444,7 +12480,7 @@
         <v>0</v>
       </c>
       <c r="AA139">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="140" spans="1:27">
@@ -12527,7 +12563,7 @@
         <v>0</v>
       </c>
       <c r="AA140">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="141" spans="1:27">
@@ -12610,7 +12646,7 @@
         <v>0</v>
       </c>
       <c r="AA141">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="142" spans="1:27">
@@ -12693,7 +12729,7 @@
         <v>0</v>
       </c>
       <c r="AA142">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="143" spans="1:27">
@@ -12776,7 +12812,7 @@
         <v>0</v>
       </c>
       <c r="AA143">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="144" spans="1:27">
@@ -12859,7 +12895,7 @@
         <v>0</v>
       </c>
       <c r="AA144">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="145" spans="1:27">
@@ -12942,7 +12978,7 @@
         <v>1</v>
       </c>
       <c r="AA145">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="146" spans="1:27">
@@ -13025,7 +13061,7 @@
         <v>1</v>
       </c>
       <c r="AA146">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="147" spans="1:27">
@@ -13108,7 +13144,7 @@
         <v>1</v>
       </c>
       <c r="AA147">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="148" spans="1:27">
@@ -13191,7 +13227,7 @@
         <v>1</v>
       </c>
       <c r="AA148">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="149" spans="1:27">
@@ -13274,7 +13310,7 @@
         <v>1</v>
       </c>
       <c r="AA149">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="150" spans="1:27">
@@ -13357,7 +13393,7 @@
         <v>1</v>
       </c>
       <c r="AA150">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="151" spans="1:27">
@@ -13440,7 +13476,7 @@
         <v>1</v>
       </c>
       <c r="AA151">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="152" spans="1:27">
@@ -13523,7 +13559,7 @@
         <v>1</v>
       </c>
       <c r="AA152">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="153" spans="1:27">
@@ -13606,7 +13642,7 @@
         <v>1</v>
       </c>
       <c r="AA153">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="154" spans="1:27">
@@ -13689,7 +13725,7 @@
         <v>1</v>
       </c>
       <c r="AA154">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="155" spans="1:27">
@@ -13772,7 +13808,7 @@
         <v>1</v>
       </c>
       <c r="AA155">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="156" spans="1:27">
@@ -13855,7 +13891,7 @@
         <v>1</v>
       </c>
       <c r="AA156">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="157" spans="1:27">
@@ -13938,7 +13974,7 @@
         <v>1</v>
       </c>
       <c r="AA157">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="158" spans="1:27">
@@ -14021,7 +14057,7 @@
         <v>1</v>
       </c>
       <c r="AA158">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="159" spans="1:27">
@@ -14104,7 +14140,7 @@
         <v>1</v>
       </c>
       <c r="AA159">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="160" spans="1:27">
@@ -14187,7 +14223,7 @@
         <v>1</v>
       </c>
       <c r="AA160">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="161" spans="1:27">
@@ -14270,7 +14306,7 @@
         <v>1</v>
       </c>
       <c r="AA161">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="162" spans="1:27">
@@ -14353,7 +14389,7 @@
         <v>1</v>
       </c>
       <c r="AA162">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="163" spans="1:27">
@@ -14436,7 +14472,7 @@
         <v>1</v>
       </c>
       <c r="AA163">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="164" spans="1:27">
@@ -14519,7 +14555,7 @@
         <v>1</v>
       </c>
       <c r="AA164">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="165" spans="1:27">
@@ -14602,7 +14638,7 @@
         <v>1</v>
       </c>
       <c r="AA165">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="166" spans="1:27">
@@ -14685,7 +14721,7 @@
         <v>1</v>
       </c>
       <c r="AA166">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="167" spans="1:27">
@@ -14768,7 +14804,7 @@
         <v>1</v>
       </c>
       <c r="AA167">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="168" spans="1:27">
@@ -14851,7 +14887,7 @@
         <v>1</v>
       </c>
       <c r="AA168">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="169" spans="1:27">
@@ -14934,7 +14970,7 @@
         <v>1</v>
       </c>
       <c r="AA169">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="170" spans="1:27">
@@ -15017,7 +15053,7 @@
         <v>1</v>
       </c>
       <c r="AA170">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="171" spans="1:27">
@@ -15100,7 +15136,7 @@
         <v>1</v>
       </c>
       <c r="AA171">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="172" spans="1:27">
@@ -15183,7 +15219,7 @@
         <v>1</v>
       </c>
       <c r="AA172">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="173" spans="1:27">
@@ -15266,7 +15302,7 @@
         <v>1</v>
       </c>
       <c r="AA173">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="174" spans="1:27">
@@ -15349,7 +15385,7 @@
         <v>1</v>
       </c>
       <c r="AA174">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="175" spans="1:27">
@@ -15432,7 +15468,7 @@
         <v>1</v>
       </c>
       <c r="AA175">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="176" spans="1:27">
@@ -15515,7 +15551,7 @@
         <v>1</v>
       </c>
       <c r="AA176">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="177" spans="1:27">
@@ -15598,7 +15634,7 @@
         <v>1</v>
       </c>
       <c r="AA177">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="178" spans="1:27">
@@ -15681,7 +15717,7 @@
         <v>1</v>
       </c>
       <c r="AA178">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="179" spans="1:27">
@@ -15764,7 +15800,7 @@
         <v>1</v>
       </c>
       <c r="AA179">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="180" spans="1:27">
@@ -15847,7 +15883,7 @@
         <v>1</v>
       </c>
       <c r="AA180">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="181" spans="1:27">
@@ -15930,7 +15966,7 @@
         <v>1</v>
       </c>
       <c r="AA181">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="182" spans="1:27">
@@ -16013,7 +16049,7 @@
         <v>1</v>
       </c>
       <c r="AA182">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="183" spans="1:27">
@@ -16096,7 +16132,7 @@
         <v>1</v>
       </c>
       <c r="AA183">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="184" spans="1:27">
@@ -16179,7 +16215,7 @@
         <v>1</v>
       </c>
       <c r="AA184">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="185" spans="1:27">
@@ -16262,7 +16298,7 @@
         <v>1</v>
       </c>
       <c r="AA185">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="186" spans="1:27">
@@ -16345,7 +16381,7 @@
         <v>1</v>
       </c>
       <c r="AA186">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="187" spans="1:27">
@@ -16428,7 +16464,7 @@
         <v>1</v>
       </c>
       <c r="AA187">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="188" spans="1:27">
@@ -16511,7 +16547,7 @@
         <v>1</v>
       </c>
       <c r="AA188">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="189" spans="1:27">
@@ -16594,7 +16630,7 @@
         <v>1</v>
       </c>
       <c r="AA189">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="190" spans="1:27">
@@ -16677,7 +16713,7 @@
         <v>1</v>
       </c>
       <c r="AA190">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="191" spans="1:27">
@@ -16760,7 +16796,7 @@
         <v>1</v>
       </c>
       <c r="AA191">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="192" spans="1:27">
@@ -16843,7 +16879,7 @@
         <v>1</v>
       </c>
       <c r="AA192">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="193" spans="1:27">
@@ -16926,7 +16962,7 @@
         <v>1</v>
       </c>
       <c r="AA193">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="194" spans="1:27">
@@ -17009,7 +17045,7 @@
         <v>1</v>
       </c>
       <c r="AA194">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="195" spans="1:27">
@@ -17092,7 +17128,7 @@
         <v>1</v>
       </c>
       <c r="AA195">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="196" spans="1:27">
@@ -17175,7 +17211,7 @@
         <v>1</v>
       </c>
       <c r="AA196">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="197" spans="1:27">
@@ -17258,7 +17294,7 @@
         <v>1</v>
       </c>
       <c r="AA197">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="198" spans="1:27">
@@ -17341,7 +17377,7 @@
         <v>1</v>
       </c>
       <c r="AA198">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="199" spans="1:27">
@@ -17424,7 +17460,7 @@
         <v>1</v>
       </c>
       <c r="AA199">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="200" spans="1:27">
@@ -17507,7 +17543,7 @@
         <v>1</v>
       </c>
       <c r="AA200">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="201" spans="1:27">
@@ -17590,7 +17626,7 @@
         <v>1</v>
       </c>
       <c r="AA201">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="202" spans="1:27">
@@ -17673,7 +17709,7 @@
         <v>1</v>
       </c>
       <c r="AA202">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="203" spans="1:27">
@@ -17756,7 +17792,7 @@
         <v>1</v>
       </c>
       <c r="AA203">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="204" spans="1:27">
@@ -17839,7 +17875,7 @@
         <v>1</v>
       </c>
       <c r="AA204">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="205" spans="1:27">
@@ -17922,7 +17958,7 @@
         <v>1</v>
       </c>
       <c r="AA205">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="206" spans="1:27">
@@ -18005,7 +18041,7 @@
         <v>1</v>
       </c>
       <c r="AA206">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="207" spans="1:27">
@@ -18088,7 +18124,7 @@
         <v>1</v>
       </c>
       <c r="AA207">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="208" spans="1:27">
@@ -18171,7 +18207,7 @@
         <v>1</v>
       </c>
       <c r="AA208">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="209" spans="1:27">
@@ -18254,7 +18290,7 @@
         <v>1</v>
       </c>
       <c r="AA209">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="210" spans="1:27">
@@ -18337,7 +18373,7 @@
         <v>1</v>
       </c>
       <c r="AA210">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="211" spans="1:27">
@@ -18420,7 +18456,7 @@
         <v>1</v>
       </c>
       <c r="AA211">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="212" spans="1:27">
@@ -18503,7 +18539,7 @@
         <v>1</v>
       </c>
       <c r="AA212">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="213" spans="1:27">
@@ -18586,7 +18622,7 @@
         <v>1</v>
       </c>
       <c r="AA213">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="214" spans="1:27">
@@ -18669,7 +18705,7 @@
         <v>1</v>
       </c>
       <c r="AA214">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="215" spans="1:27">
@@ -18752,7 +18788,7 @@
         <v>1</v>
       </c>
       <c r="AA215">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="216" spans="1:27">
@@ -18835,7 +18871,7 @@
         <v>1</v>
       </c>
       <c r="AA216">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="217" spans="1:27">
@@ -18918,7 +18954,7 @@
         <v>1</v>
       </c>
       <c r="AA217">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="218" spans="1:27">
@@ -19001,7 +19037,7 @@
         <v>1</v>
       </c>
       <c r="AA218">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="219" spans="1:27">
@@ -19084,7 +19120,7 @@
         <v>1</v>
       </c>
       <c r="AA219">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="220" spans="1:27">
@@ -19167,7 +19203,7 @@
         <v>1</v>
       </c>
       <c r="AA220">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="221" spans="1:27">
@@ -19250,7 +19286,1003 @@
         <v>1</v>
       </c>
       <c r="AA221">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="222" spans="1:27">
+      <c r="A222" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B222">
+        <v>0</v>
+      </c>
+      <c r="C222">
+        <v>0</v>
+      </c>
+      <c r="D222">
+        <v>1</v>
+      </c>
+      <c r="E222">
+        <v>0</v>
+      </c>
+      <c r="F222">
+        <v>0</v>
+      </c>
+      <c r="G222">
+        <v>0</v>
+      </c>
+      <c r="H222">
+        <v>0</v>
+      </c>
+      <c r="I222">
+        <v>0</v>
+      </c>
+      <c r="J222">
+        <v>0</v>
+      </c>
+      <c r="K222">
+        <v>0</v>
+      </c>
+      <c r="L222">
+        <v>0</v>
+      </c>
+      <c r="M222">
+        <v>0</v>
+      </c>
+      <c r="N222">
+        <v>0</v>
+      </c>
+      <c r="O222">
+        <v>0</v>
+      </c>
+      <c r="P222">
+        <v>0</v>
+      </c>
+      <c r="Q222">
+        <v>0</v>
+      </c>
+      <c r="R222">
+        <v>0</v>
+      </c>
+      <c r="S222">
+        <v>0</v>
+      </c>
+      <c r="T222">
+        <v>0</v>
+      </c>
+      <c r="U222">
+        <v>0</v>
+      </c>
+      <c r="V222">
+        <v>0</v>
+      </c>
+      <c r="W222">
+        <v>1</v>
+      </c>
+      <c r="X222">
+        <v>1</v>
+      </c>
+      <c r="Y222">
+        <v>1</v>
+      </c>
+      <c r="Z222">
+        <v>1</v>
+      </c>
+      <c r="AA222">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="223" spans="1:27">
+      <c r="A223" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B223">
+        <v>0</v>
+      </c>
+      <c r="C223">
+        <v>0</v>
+      </c>
+      <c r="D223">
+        <v>1</v>
+      </c>
+      <c r="E223">
+        <v>0</v>
+      </c>
+      <c r="F223">
+        <v>0</v>
+      </c>
+      <c r="G223">
+        <v>0</v>
+      </c>
+      <c r="H223">
+        <v>0</v>
+      </c>
+      <c r="I223">
+        <v>0</v>
+      </c>
+      <c r="J223">
+        <v>0</v>
+      </c>
+      <c r="K223">
+        <v>0</v>
+      </c>
+      <c r="L223">
+        <v>0</v>
+      </c>
+      <c r="M223">
+        <v>0</v>
+      </c>
+      <c r="N223">
+        <v>0</v>
+      </c>
+      <c r="O223">
+        <v>0</v>
+      </c>
+      <c r="P223">
+        <v>0</v>
+      </c>
+      <c r="Q223">
+        <v>0</v>
+      </c>
+      <c r="R223">
+        <v>0</v>
+      </c>
+      <c r="S223">
+        <v>0</v>
+      </c>
+      <c r="T223">
+        <v>0</v>
+      </c>
+      <c r="U223">
+        <v>0</v>
+      </c>
+      <c r="V223">
+        <v>0</v>
+      </c>
+      <c r="W223">
+        <v>1</v>
+      </c>
+      <c r="X223">
+        <v>1</v>
+      </c>
+      <c r="Y223">
+        <v>1</v>
+      </c>
+      <c r="Z223">
+        <v>1</v>
+      </c>
+      <c r="AA223">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="224" spans="1:27">
+      <c r="A224" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B224">
+        <v>0</v>
+      </c>
+      <c r="C224">
+        <v>0</v>
+      </c>
+      <c r="D224">
+        <v>1</v>
+      </c>
+      <c r="E224">
+        <v>0</v>
+      </c>
+      <c r="F224">
+        <v>0</v>
+      </c>
+      <c r="G224">
+        <v>0</v>
+      </c>
+      <c r="H224">
+        <v>0</v>
+      </c>
+      <c r="I224">
+        <v>0</v>
+      </c>
+      <c r="J224">
+        <v>0</v>
+      </c>
+      <c r="K224">
+        <v>0</v>
+      </c>
+      <c r="L224">
+        <v>0</v>
+      </c>
+      <c r="M224">
+        <v>0</v>
+      </c>
+      <c r="N224">
+        <v>0</v>
+      </c>
+      <c r="O224">
+        <v>0</v>
+      </c>
+      <c r="P224">
+        <v>0</v>
+      </c>
+      <c r="Q224">
+        <v>0</v>
+      </c>
+      <c r="R224">
+        <v>0</v>
+      </c>
+      <c r="S224">
+        <v>0</v>
+      </c>
+      <c r="T224">
+        <v>0</v>
+      </c>
+      <c r="U224">
+        <v>0</v>
+      </c>
+      <c r="V224">
+        <v>0</v>
+      </c>
+      <c r="W224">
+        <v>1</v>
+      </c>
+      <c r="X224">
+        <v>1</v>
+      </c>
+      <c r="Y224">
+        <v>1</v>
+      </c>
+      <c r="Z224">
+        <v>1</v>
+      </c>
+      <c r="AA224">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="225" spans="1:27">
+      <c r="A225" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B225">
+        <v>0</v>
+      </c>
+      <c r="C225">
+        <v>0</v>
+      </c>
+      <c r="D225">
+        <v>1</v>
+      </c>
+      <c r="E225">
+        <v>0</v>
+      </c>
+      <c r="F225">
+        <v>0</v>
+      </c>
+      <c r="G225">
+        <v>0</v>
+      </c>
+      <c r="H225">
+        <v>0</v>
+      </c>
+      <c r="I225">
+        <v>0</v>
+      </c>
+      <c r="J225">
+        <v>0</v>
+      </c>
+      <c r="K225">
+        <v>0</v>
+      </c>
+      <c r="L225">
+        <v>0</v>
+      </c>
+      <c r="M225">
+        <v>0</v>
+      </c>
+      <c r="N225">
+        <v>0</v>
+      </c>
+      <c r="O225">
+        <v>0</v>
+      </c>
+      <c r="P225">
+        <v>0</v>
+      </c>
+      <c r="Q225">
+        <v>0</v>
+      </c>
+      <c r="R225">
+        <v>0</v>
+      </c>
+      <c r="S225">
+        <v>0</v>
+      </c>
+      <c r="T225">
+        <v>0</v>
+      </c>
+      <c r="U225">
+        <v>0</v>
+      </c>
+      <c r="V225">
+        <v>0</v>
+      </c>
+      <c r="W225">
+        <v>1</v>
+      </c>
+      <c r="X225">
+        <v>1</v>
+      </c>
+      <c r="Y225">
+        <v>1</v>
+      </c>
+      <c r="Z225">
+        <v>1</v>
+      </c>
+      <c r="AA225">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="226" spans="1:27">
+      <c r="A226" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B226">
+        <v>0</v>
+      </c>
+      <c r="C226">
+        <v>0</v>
+      </c>
+      <c r="D226">
+        <v>1</v>
+      </c>
+      <c r="E226">
+        <v>0</v>
+      </c>
+      <c r="F226">
+        <v>0</v>
+      </c>
+      <c r="G226">
+        <v>0</v>
+      </c>
+      <c r="H226">
+        <v>0</v>
+      </c>
+      <c r="I226">
+        <v>0</v>
+      </c>
+      <c r="J226">
+        <v>0</v>
+      </c>
+      <c r="K226">
+        <v>0</v>
+      </c>
+      <c r="L226">
+        <v>0</v>
+      </c>
+      <c r="M226">
+        <v>0</v>
+      </c>
+      <c r="N226">
+        <v>0</v>
+      </c>
+      <c r="O226">
+        <v>0</v>
+      </c>
+      <c r="P226">
+        <v>0</v>
+      </c>
+      <c r="Q226">
+        <v>0</v>
+      </c>
+      <c r="R226">
+        <v>0</v>
+      </c>
+      <c r="S226">
+        <v>0</v>
+      </c>
+      <c r="T226">
+        <v>0</v>
+      </c>
+      <c r="U226">
+        <v>0</v>
+      </c>
+      <c r="V226">
+        <v>0</v>
+      </c>
+      <c r="W226">
+        <v>1</v>
+      </c>
+      <c r="X226">
+        <v>1</v>
+      </c>
+      <c r="Y226">
+        <v>1</v>
+      </c>
+      <c r="Z226">
+        <v>1</v>
+      </c>
+      <c r="AA226">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="227" spans="1:27">
+      <c r="A227" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B227">
+        <v>0</v>
+      </c>
+      <c r="C227">
+        <v>0</v>
+      </c>
+      <c r="D227">
+        <v>1</v>
+      </c>
+      <c r="E227">
+        <v>0</v>
+      </c>
+      <c r="F227">
+        <v>0</v>
+      </c>
+      <c r="G227">
+        <v>0</v>
+      </c>
+      <c r="H227">
+        <v>0</v>
+      </c>
+      <c r="I227">
+        <v>0</v>
+      </c>
+      <c r="J227">
+        <v>0</v>
+      </c>
+      <c r="K227">
+        <v>0</v>
+      </c>
+      <c r="L227">
+        <v>0</v>
+      </c>
+      <c r="M227">
+        <v>0</v>
+      </c>
+      <c r="N227">
+        <v>0</v>
+      </c>
+      <c r="O227">
+        <v>0</v>
+      </c>
+      <c r="P227">
+        <v>0</v>
+      </c>
+      <c r="Q227">
+        <v>0</v>
+      </c>
+      <c r="R227">
+        <v>0</v>
+      </c>
+      <c r="S227">
+        <v>0</v>
+      </c>
+      <c r="T227">
+        <v>0</v>
+      </c>
+      <c r="U227">
+        <v>0</v>
+      </c>
+      <c r="V227">
+        <v>0</v>
+      </c>
+      <c r="W227">
+        <v>1</v>
+      </c>
+      <c r="X227">
+        <v>1</v>
+      </c>
+      <c r="Y227">
+        <v>1</v>
+      </c>
+      <c r="Z227">
+        <v>1</v>
+      </c>
+      <c r="AA227">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="228" spans="1:27">
+      <c r="A228" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B228">
+        <v>0</v>
+      </c>
+      <c r="C228">
+        <v>0</v>
+      </c>
+      <c r="D228">
+        <v>1</v>
+      </c>
+      <c r="E228">
+        <v>0</v>
+      </c>
+      <c r="F228">
+        <v>0</v>
+      </c>
+      <c r="G228">
+        <v>0</v>
+      </c>
+      <c r="H228">
+        <v>0</v>
+      </c>
+      <c r="I228">
+        <v>0</v>
+      </c>
+      <c r="J228">
+        <v>0</v>
+      </c>
+      <c r="K228">
+        <v>0</v>
+      </c>
+      <c r="L228">
+        <v>0</v>
+      </c>
+      <c r="M228">
+        <v>0</v>
+      </c>
+      <c r="N228">
+        <v>0</v>
+      </c>
+      <c r="O228">
+        <v>0</v>
+      </c>
+      <c r="P228">
+        <v>0</v>
+      </c>
+      <c r="Q228">
+        <v>0</v>
+      </c>
+      <c r="R228">
+        <v>0</v>
+      </c>
+      <c r="S228">
+        <v>0</v>
+      </c>
+      <c r="T228">
+        <v>0</v>
+      </c>
+      <c r="U228">
+        <v>0</v>
+      </c>
+      <c r="V228">
+        <v>0</v>
+      </c>
+      <c r="W228">
+        <v>1</v>
+      </c>
+      <c r="X228">
+        <v>1</v>
+      </c>
+      <c r="Y228">
+        <v>1</v>
+      </c>
+      <c r="Z228">
+        <v>1</v>
+      </c>
+      <c r="AA228">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="229" spans="1:27">
+      <c r="A229" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B229">
+        <v>0</v>
+      </c>
+      <c r="C229">
+        <v>0</v>
+      </c>
+      <c r="D229">
+        <v>1</v>
+      </c>
+      <c r="E229">
+        <v>0</v>
+      </c>
+      <c r="F229">
+        <v>0</v>
+      </c>
+      <c r="G229">
+        <v>0</v>
+      </c>
+      <c r="H229">
+        <v>0</v>
+      </c>
+      <c r="I229">
+        <v>0</v>
+      </c>
+      <c r="J229">
+        <v>0</v>
+      </c>
+      <c r="K229">
+        <v>0</v>
+      </c>
+      <c r="L229">
+        <v>0</v>
+      </c>
+      <c r="M229">
+        <v>0</v>
+      </c>
+      <c r="N229">
+        <v>0</v>
+      </c>
+      <c r="O229">
+        <v>0</v>
+      </c>
+      <c r="P229">
+        <v>0</v>
+      </c>
+      <c r="Q229">
+        <v>0</v>
+      </c>
+      <c r="R229">
+        <v>0</v>
+      </c>
+      <c r="S229">
+        <v>0</v>
+      </c>
+      <c r="T229">
+        <v>0</v>
+      </c>
+      <c r="U229">
+        <v>0</v>
+      </c>
+      <c r="V229">
+        <v>0</v>
+      </c>
+      <c r="W229">
+        <v>1</v>
+      </c>
+      <c r="X229">
+        <v>1</v>
+      </c>
+      <c r="Y229">
+        <v>1</v>
+      </c>
+      <c r="Z229">
+        <v>1</v>
+      </c>
+      <c r="AA229">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="230" spans="1:27">
+      <c r="A230" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B230">
+        <v>0</v>
+      </c>
+      <c r="C230">
+        <v>0</v>
+      </c>
+      <c r="D230">
+        <v>1</v>
+      </c>
+      <c r="E230">
+        <v>0</v>
+      </c>
+      <c r="F230">
+        <v>0</v>
+      </c>
+      <c r="G230">
+        <v>0</v>
+      </c>
+      <c r="H230">
+        <v>0</v>
+      </c>
+      <c r="I230">
+        <v>0</v>
+      </c>
+      <c r="J230">
+        <v>0</v>
+      </c>
+      <c r="K230">
+        <v>0</v>
+      </c>
+      <c r="L230">
+        <v>0</v>
+      </c>
+      <c r="M230">
+        <v>0</v>
+      </c>
+      <c r="N230">
+        <v>0</v>
+      </c>
+      <c r="O230">
+        <v>0</v>
+      </c>
+      <c r="P230">
+        <v>0</v>
+      </c>
+      <c r="Q230">
+        <v>0</v>
+      </c>
+      <c r="R230">
+        <v>0</v>
+      </c>
+      <c r="S230">
+        <v>0</v>
+      </c>
+      <c r="T230">
+        <v>0</v>
+      </c>
+      <c r="U230">
+        <v>0</v>
+      </c>
+      <c r="V230">
+        <v>0</v>
+      </c>
+      <c r="W230">
+        <v>1</v>
+      </c>
+      <c r="X230">
+        <v>1</v>
+      </c>
+      <c r="Y230">
+        <v>1</v>
+      </c>
+      <c r="Z230">
+        <v>1</v>
+      </c>
+      <c r="AA230">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="231" spans="1:27">
+      <c r="A231" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B231">
+        <v>0</v>
+      </c>
+      <c r="C231">
+        <v>0</v>
+      </c>
+      <c r="D231">
+        <v>1</v>
+      </c>
+      <c r="E231">
+        <v>0</v>
+      </c>
+      <c r="F231">
+        <v>0</v>
+      </c>
+      <c r="G231">
+        <v>0</v>
+      </c>
+      <c r="H231">
+        <v>0</v>
+      </c>
+      <c r="I231">
+        <v>0</v>
+      </c>
+      <c r="J231">
+        <v>0</v>
+      </c>
+      <c r="K231">
+        <v>0</v>
+      </c>
+      <c r="L231">
+        <v>0</v>
+      </c>
+      <c r="M231">
+        <v>0</v>
+      </c>
+      <c r="N231">
+        <v>0</v>
+      </c>
+      <c r="O231">
+        <v>0</v>
+      </c>
+      <c r="P231">
+        <v>0</v>
+      </c>
+      <c r="Q231">
+        <v>0</v>
+      </c>
+      <c r="R231">
+        <v>0</v>
+      </c>
+      <c r="S231">
+        <v>0</v>
+      </c>
+      <c r="T231">
+        <v>0</v>
+      </c>
+      <c r="U231">
+        <v>0</v>
+      </c>
+      <c r="V231">
+        <v>0</v>
+      </c>
+      <c r="W231">
+        <v>1</v>
+      </c>
+      <c r="X231">
+        <v>1</v>
+      </c>
+      <c r="Y231">
+        <v>1</v>
+      </c>
+      <c r="Z231">
+        <v>1</v>
+      </c>
+      <c r="AA231">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="232" spans="1:27">
+      <c r="A232" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B232">
+        <v>0</v>
+      </c>
+      <c r="C232">
+        <v>0</v>
+      </c>
+      <c r="D232">
+        <v>1</v>
+      </c>
+      <c r="E232">
+        <v>0</v>
+      </c>
+      <c r="F232">
+        <v>0</v>
+      </c>
+      <c r="G232">
+        <v>0</v>
+      </c>
+      <c r="H232">
+        <v>0</v>
+      </c>
+      <c r="I232">
+        <v>0</v>
+      </c>
+      <c r="J232">
+        <v>0</v>
+      </c>
+      <c r="K232">
+        <v>0</v>
+      </c>
+      <c r="L232">
+        <v>0</v>
+      </c>
+      <c r="M232">
+        <v>0</v>
+      </c>
+      <c r="N232">
+        <v>0</v>
+      </c>
+      <c r="O232">
+        <v>0</v>
+      </c>
+      <c r="P232">
+        <v>0</v>
+      </c>
+      <c r="Q232">
+        <v>0</v>
+      </c>
+      <c r="R232">
+        <v>0</v>
+      </c>
+      <c r="S232">
+        <v>0</v>
+      </c>
+      <c r="T232">
+        <v>0</v>
+      </c>
+      <c r="U232">
+        <v>0</v>
+      </c>
+      <c r="V232">
+        <v>0</v>
+      </c>
+      <c r="W232">
+        <v>1</v>
+      </c>
+      <c r="X232">
+        <v>1</v>
+      </c>
+      <c r="Y232">
+        <v>1</v>
+      </c>
+      <c r="Z232">
+        <v>1</v>
+      </c>
+      <c r="AA232">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="233" spans="1:27">
+      <c r="A233" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B233">
+        <v>0</v>
+      </c>
+      <c r="C233">
+        <v>0</v>
+      </c>
+      <c r="D233">
+        <v>1</v>
+      </c>
+      <c r="E233">
+        <v>0</v>
+      </c>
+      <c r="F233">
+        <v>0</v>
+      </c>
+      <c r="G233">
+        <v>0</v>
+      </c>
+      <c r="H233">
+        <v>0</v>
+      </c>
+      <c r="I233">
+        <v>0</v>
+      </c>
+      <c r="J233">
+        <v>0</v>
+      </c>
+      <c r="K233">
+        <v>0</v>
+      </c>
+      <c r="L233">
+        <v>0</v>
+      </c>
+      <c r="M233">
+        <v>0</v>
+      </c>
+      <c r="N233">
+        <v>0</v>
+      </c>
+      <c r="O233">
+        <v>0</v>
+      </c>
+      <c r="P233">
+        <v>0</v>
+      </c>
+      <c r="Q233">
+        <v>0</v>
+      </c>
+      <c r="R233">
+        <v>0</v>
+      </c>
+      <c r="S233">
+        <v>0</v>
+      </c>
+      <c r="T233">
+        <v>0</v>
+      </c>
+      <c r="U233">
+        <v>0</v>
+      </c>
+      <c r="V233">
+        <v>0</v>
+      </c>
+      <c r="W233">
+        <v>1</v>
+      </c>
+      <c r="X233">
+        <v>1</v>
+      </c>
+      <c r="Y233">
+        <v>1</v>
+      </c>
+      <c r="Z233">
+        <v>1</v>
+      </c>
+      <c r="AA233">
+        <v>0.3333333333333333</v>
       </c>
     </row>
   </sheetData>
